--- a/outputs/filtered jobs in required format.xlsx
+++ b/outputs/filtered jobs in required format.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="May 30, 2020 at 01 PM" sheetId="1" r:id="rId1"/>
+    <sheet name="June 06, 2020 at 02 PM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="211">
   <si>
     <t>Market/Sector</t>
   </si>
@@ -52,10 +52,16 @@
     <t>[Kla Tencor](https://careers.kla-tencor.com/jobs/search)</t>
   </si>
   <si>
+    <t>[TNO](https://www.tno.nl/nl/career/vacatures/?p=0)</t>
+  </si>
+  <si>
+    <t>[Vathos Robotics](https://www.vathos-robotics.com/careers/)</t>
+  </si>
+  <si>
     <t>[abto software](https://careers.abtosoftware.com/?s=&amp;vacancy-department=)</t>
   </si>
   <si>
-    <t>[clarifai](https://www.clarifai.com/careers)</t>
+    <t>[axis communications](https://www.axis.com/about-axis/career/open-positions?)</t>
   </si>
   <si>
     <t>[hp labs](https://jobs.hp.com/en-us/Search-Results?CloudSearchValue=nonse&amp;CloudSearchLocation=none&amp;CloudSearchRadius=50&amp;radiusUnit=Miles&amp;prefilters=none)</t>
@@ -112,9 +118,6 @@
     <t>[Data Engineer 1](https://careers.kla-tencor.com/jobs/5260698-data-engineer-1)</t>
   </si>
   <si>
-    <t>[Business Analyst](https://careers.kla-tencor.com/jobs/5260397-business-analyst)</t>
-  </si>
-  <si>
     <t>[AI/Algo/SW- Intern](https://careers.kla-tencor.com/jobs/5244443-ai-slash-algo-slash-sw-intern)</t>
   </si>
   <si>
@@ -160,18 +163,12 @@
     <t>[Associate Financial Analyst](https://careers.kla-tencor.com/jobs/4983684-associate-financial-analyst)</t>
   </si>
   <si>
-    <t>[Photophysics Research Engineer](https://careers.kla-tencor.com/jobs/4757387-photophysics-research-engineer)</t>
-  </si>
-  <si>
     <t>[Senior ML Algorithm Engineer](https://careers.kla-tencor.com/jobs/4745473-senior-ml-algorithm-engineer)</t>
   </si>
   <si>
     <t>[Senior AI Software Engineer](https://careers.kla-tencor.com/jobs/4744789-senior-ai-software-engineer)</t>
   </si>
   <si>
-    <t>[Financial Analyst](https://careers.kla-tencor.com/jobs/4735300-financial-analyst)</t>
-  </si>
-  <si>
     <t>[Financial Analyst](https://careers.kla-tencor.com/jobs/4669626-financial-analyst)</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>[Algorithm Engineer (AI, ML, Image Processing, Machine Vision, Computer Vision)](https://careers.kla-tencor.com/jobs/4606453-algorithm-engineer-ai-ml-image-processing-machine-vision-computer-vision)</t>
   </si>
   <si>
-    <t>[AI Algorithms Engineer](https://careers.kla-tencor.com/jobs/4591361-ai-algorithms-engineer)</t>
-  </si>
-  <si>
     <t>[ML Algorithm Engineer](https://careers.kla-tencor.com/jobs/4591358-ml-algorithm-engineer)</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>[ML Software Engineer](https://careers.kla-tencor.com/jobs/4585750-ml-software-engineer)</t>
   </si>
   <si>
-    <t>[ML Algorithms Engineer](https://careers.kla-tencor.com/jobs/4585560-ml-algorithms-engineer)</t>
-  </si>
-  <si>
     <t>[AI Software Engineer](https://careers.kla-tencor.com/jobs/3915430-ai-software-engineer)</t>
   </si>
   <si>
@@ -214,22 +205,28 @@
     <t>[CJO-USA-Financial Analyst](https://careers.kla-tencor.com/jobs/3600534-cjo-usa-financial-analyst)</t>
   </si>
   <si>
-    <t>[Algorithm Engineer - Image Processing &amp; AI/ML](https://careers.kla-tencor.com/jobs/3535453-algorithm-engineer-image-processing-and-ai-slash-ml)</t>
-  </si>
-  <si>
     <t>[Senior Data Engineer - Cloud Data warehouse](https://careers.kla-tencor.com/jobs/3327502-senior-data-engineer-cloud-data-warehouse)</t>
   </si>
   <si>
     <t>[Image Processing &amp; Machine Learning Researcher](https://careers.kla-tencor.com/jobs/2371992-image-processing-and-machine-learning-researcher)</t>
   </si>
   <si>
+    <t>[Chemisch Analist/ Research Engineer](https://www.tno.nl/nl/career/vacatures/chemisch-analist-research-engineer/vacid-a0s0x000018lbvwuak/)</t>
+  </si>
+  <si>
+    <t>[Computer Vision Engineer (m/f/d)](https://www.vathos-robotics.com/jobs/computer-vision-engineer-m-f-d/)</t>
+  </si>
+  <si>
     <t>[CV&amp;AI Technical Lead](https://careers.abtosoftware.com/vacancy/cv-ai-technical-lead/)</t>
   </si>
   <si>
-    <t>[Senior Research Scientist/Data Scientist, Machine Learning](https://boards.greenhouse.io/clarifai/jobs/2140970?gh_jid=2140970)</t>
-  </si>
-  <si>
-    <t>[Data Scientist](https://jobs.hp.com/en-us/showjob/jobid/4874)</t>
+    <t>[Master Thesis - Enhancing Analysis of Hardware Design Verification Metrics Using Machine Learning &amp; Data Visualization](https://axis.wd3.myworkdayjobs.com/External_Career_Site/job/Sweden---Lund/Master-Thesis---Enhancing-Analysis-of-Hardware-Design-Verification-Metrics-Using-Machine-Learning---Data-Visualization_R-115737)</t>
+  </si>
+  <si>
+    <t>[Financial Analyst](https://jobs.hp.com/en-us/showjob/jobid/5120)</t>
+  </si>
+  <si>
+    <t>[Data Scientist](https://jobs.hp.com/en-us/showjob/jobid/5116)</t>
   </si>
   <si>
     <t>[Lead Data Scientist](https://jobs.hp.com/en-us/showjob/jobid/4913)</t>
@@ -262,9 +259,6 @@
     <t>[Business Analyst](https://jobs.hp.com/en-us/showjob/jobid/4765)</t>
   </si>
   <si>
-    <t>[Senior Financial Analyst](https://jobs.hp.com/en-us/showjob/jobid/4019)</t>
-  </si>
-  <si>
     <t>[Senior Backend Engineer - AI Platforms](http://www.nauto.com/jobs?gh_jid=2160314)</t>
   </si>
   <si>
@@ -394,21 +388,42 @@
     <t>[Lead Data Scientist - Machine Learning](https://gramener.com/job/?id=90512)</t>
   </si>
   <si>
+    <t>[Sr. Data Scientist - Deep Learning (NLP)](https://gramener.com/job/?id=90522)</t>
+  </si>
+  <si>
     <t>[Sr. Data Scientist - Deep Learning](https://gramener.com/job/?id=90514)</t>
   </si>
   <si>
     <t>[Data Scientist (Java with SOLR)](https://gramener.com/job/?id=90519)</t>
   </si>
   <si>
+    <t>[UV Data Engineer IR](https://careers.ihsmarkit.com/job.php?id=R15798)</t>
+  </si>
+  <si>
+    <t>[Business Analyst + Business Intelligence Developer (Report Writer)](https://careers.ihsmarkit.com/job.php?id=R12238)</t>
+  </si>
+  <si>
+    <t>[Business Analyst](https://careers.ihsmarkit.com/job.php?id=R15759)</t>
+  </si>
+  <si>
+    <t>[Associate II Database Administrator](https://careers.ihsmarkit.com/job.php?id=R15489)</t>
+  </si>
+  <si>
+    <t>[Data Visualization Designer](https://careers.ihsmarkit.com/job.php?id=R15471)</t>
+  </si>
+  <si>
+    <t>[Machine Learning/Data Science Engineer](https://careers.ihsmarkit.com/job.php?id=R15620)</t>
+  </si>
+  <si>
+    <t>[Machine Learning Engineer](https://careers.ihsmarkit.com/job.php?id=R15432)</t>
+  </si>
+  <si>
+    <t>[Data Scientist (NLP)](https://careers.ihsmarkit.com/job.php?id=R15433)</t>
+  </si>
+  <si>
     <t>[Senior Data Engineer / Python](https://careers.ihsmarkit.com/job.php?id=R15415)</t>
   </si>
   <si>
-    <t>[Data Scientist (NLP)](https://careers.ihsmarkit.com/job.php?id=R15433)</t>
-  </si>
-  <si>
-    <t>[Machine Learning Engineer](https://careers.ihsmarkit.com/job.php?id=R15432)</t>
-  </si>
-  <si>
     <t>[Senior Machine Learning Engineer](https://careers.ihsmarkit.com/job.php?id=R15431)</t>
   </si>
   <si>
@@ -418,21 +433,21 @@
     <t>[Senior Software Engineer (Python or Java) - Data Lake](https://careers.ihsmarkit.com/job.php?id=R14995)</t>
   </si>
   <si>
+    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668)</t>
+  </si>
+  <si>
+    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668-3)</t>
+  </si>
+  <si>
+    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668-1)</t>
+  </si>
+  <si>
+    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668-2)</t>
+  </si>
+  <si>
     <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668-4)</t>
   </si>
   <si>
-    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668-1)</t>
-  </si>
-  <si>
-    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668-3)</t>
-  </si>
-  <si>
-    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668)</t>
-  </si>
-  <si>
-    <t>[Full Stack Data Scientist](https://careers.ihsmarkit.com/job.php?id=R14668-2)</t>
-  </si>
-  <si>
     <t>[Data Scientist](https://careers.ihsmarkit.com/job.php?id=R13488)</t>
   </si>
   <si>
@@ -472,6 +487,9 @@
     <t>[Software Engineer II (chatbot)](https://www.uipath.com/company/careers/americas/bellevue/engineering-development/software-engineer-ii-chatbot)</t>
   </si>
   <si>
+    <t>[Data Engineer](https://www.uipath.com/company/careers/europe/eindhoven/processgold-it-processgold-it/data-engineer)</t>
+  </si>
+  <si>
     <t>[Computer Vision Researcher](https://jobs.lever.co/vicarious/7c3b3cd6-8552-43c2-b89f-8a410fd2684a)</t>
   </si>
   <si>
@@ -502,27 +520,24 @@
     <t>Leuven</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
     <t>Lviv, UA</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Porto Alegre, Rio Grande do Sul, Brazil</t>
+    <t>Taipei City, Taipei City, Taiwan</t>
+  </si>
+  <si>
+    <t>Sant Cugat del Valles, Barcelona, Spain</t>
   </si>
   <si>
     <t>San Diego, California, United States of America</t>
   </si>
   <si>
-    <t>Sant Cugat del Valles, Barcelona, Spain</t>
-  </si>
-  <si>
     <t>Zapopan, Jalisco, Mexico</t>
   </si>
   <si>
@@ -598,16 +613,25 @@
     <t>Hyderabad, Bangalore</t>
   </si>
   <si>
+    <t>Hyderabad | Bangalore</t>
+  </si>
+  <si>
     <t>Belarus - Minsk, Minskaya voblasts'</t>
   </si>
   <si>
+    <t>India - Hyderabad, Telangana</t>
+  </si>
+  <si>
+    <t>Singapore - Singapore</t>
+  </si>
+  <si>
+    <t>India - Noida, Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>India - Gurgaon</t>
+  </si>
+  <si>
     <t>Poland - Gdansk</t>
-  </si>
-  <si>
-    <t>India - Noida, Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>India - Gurgaon</t>
   </si>
   <si>
     <t>India - Bangalore, Karnataka</t>
@@ -980,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1022,10 +1046,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1036,10 +1060,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1050,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1064,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1078,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1092,10 +1116,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1106,10 +1130,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1120,10 +1144,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1134,10 +1158,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1148,10 +1172,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1162,10 +1186,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1176,10 +1200,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1190,10 +1214,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1204,10 +1228,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1218,10 +1242,10 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1232,10 +1256,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1246,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1260,10 +1284,10 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1274,10 +1298,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1288,10 +1312,10 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1302,10 +1326,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1316,10 +1340,10 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1330,10 +1354,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1344,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1358,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1372,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1386,10 +1410,10 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1400,10 +1424,10 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1414,10 +1438,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1428,10 +1452,10 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1442,10 +1466,10 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1456,10 +1480,10 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1467,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1481,13 +1505,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1495,13 +1516,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1509,13 +1530,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1523,13 +1541,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1537,13 +1555,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1551,13 +1569,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1565,13 +1583,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1579,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1593,13 +1611,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1607,13 +1625,13 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1621,13 +1639,13 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1635,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1649,13 +1667,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1663,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1677,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1691,13 +1709,13 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1705,69 +1723,69 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1775,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1789,13 +1807,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1803,13 +1821,13 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1817,13 +1835,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1831,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1845,13 +1863,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1859,13 +1877,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1873,13 +1891,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1887,13 +1905,13 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1901,13 +1919,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1915,13 +1933,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1929,13 +1947,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1943,13 +1961,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1957,13 +1975,13 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1971,13 +1989,13 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1985,13 +2003,13 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1999,69 +2017,57 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2069,10 +2075,13 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="D78" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2080,10 +2089,13 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="D79" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2091,10 +2103,13 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2102,10 +2117,13 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2113,13 +2131,13 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2127,13 +2145,13 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2141,13 +2159,13 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2155,13 +2173,13 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2169,13 +2187,13 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2183,13 +2201,13 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2197,13 +2215,13 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2211,13 +2229,13 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2225,13 +2243,13 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2239,13 +2257,13 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2253,66 +2271,66 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D96" t="s">
         <v>190</v>
@@ -2323,13 +2341,13 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2337,13 +2355,13 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2351,13 +2369,13 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2365,13 +2383,13 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2379,13 +2397,13 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2393,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2407,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2421,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2435,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D105" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2449,13 +2467,13 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D106" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2463,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D107" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2477,13 +2495,13 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2491,13 +2509,13 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2505,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2519,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2533,13 +2551,13 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2547,13 +2565,13 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D113" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2561,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D114" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2575,13 +2593,13 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2589,10 +2607,10 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D116" t="s">
         <v>200</v>
@@ -2603,13 +2621,13 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2617,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D118" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2631,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D119" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2645,13 +2663,13 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2662,7 +2680,10 @@
         <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="D121" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2673,40 +2694,46 @@
         <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="D122" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
         <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="D123" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
       </c>
       <c r="C124" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2714,10 +2741,10 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C126" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2725,10 +2752,10 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2736,10 +2763,10 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2747,10 +2774,54 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
